--- a/文档/项目组内文档/07.项目周报.xlsx
+++ b/文档/项目组内文档/07.项目周报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="13935" windowHeight="5175" tabRatio="628" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="13935" windowHeight="5175" tabRatio="628"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="32" r:id="rId1"/>
@@ -833,7 +833,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="116">
   <si>
     <t>项目编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1034,15 +1034,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人员1</t>
-  </si>
-  <si>
-    <t>人员2</t>
-  </si>
-  <si>
-    <t>．．．</t>
-  </si>
-  <si>
     <t>主要成员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1179,26 +1170,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目中将使用的大多数技术是初次使用</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>不断的进行技术调查</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>对应中</t>
-  </si>
-  <si>
     <t>SD</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>项 目 周 报</t>
@@ -1212,15 +1185,6 @@
   </si>
   <si>
     <t>修改条款及内容</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>密级：秘密</t>
@@ -1270,9 +1234,6 @@
   <si>
     <t>NEUSOFT SECRET</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称（项目编号）</t>
   </si>
   <si>
     <t>东软人才实训中心</t>
@@ -1350,6 +1311,91 @@
   </si>
   <si>
     <t>文档编号：D0000-PPC-项目编号-PWR-年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书信息管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴若楠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱晓燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概要设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0天</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅凯文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ode，git</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅凯文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8.0-0.0.1</t>
+  </si>
+  <si>
+    <t>修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2447,7 +2493,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2663,9 +2709,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2677,9 +2720,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2981,9 +3021,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2995,6 +3032,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -32362,7 +32429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A82" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -32379,12 +32446,12 @@
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="22.5">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="18.75">
       <c r="A3" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="18.75">
@@ -32413,7 +32480,7 @@
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="18.75">
       <c r="A12" s="4"/>
-      <c r="C12" s="88"/>
+      <c r="C12" s="86"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="18.75">
       <c r="A13" s="4"/>
@@ -32430,17 +32497,17 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A15" s="141" t="s">
-        <v>108</v>
+      <c r="A15" s="139" t="s">
+        <v>96</v>
       </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="18.75">
       <c r="A16" s="7"/>
@@ -32454,8 +32521,8 @@
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="18.75">
-      <c r="A17" s="89" t="s">
-        <v>90</v>
+      <c r="A17" s="87" t="s">
+        <v>79</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -32467,7 +32534,7 @@
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="18.75">
-      <c r="A18" s="90">
+      <c r="A18" s="88">
         <v>42948</v>
       </c>
       <c r="B18" s="6"/>
@@ -32634,8 +32701,8 @@
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:10" s="2" customFormat="1" ht="19.5">
-      <c r="A33" s="91" t="s">
-        <v>91</v>
+      <c r="A33" s="89" t="s">
+        <v>80</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -32645,11 +32712,11 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="92"/>
+      <c r="J33" s="90"/>
     </row>
     <row r="34" spans="1:10" s="2" customFormat="1" ht="19.5">
-      <c r="A34" s="93" t="s">
-        <v>92</v>
+      <c r="A34" s="91" t="s">
+        <v>81</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -32659,7 +32726,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="92"/>
+      <c r="J34" s="90"/>
     </row>
     <row r="35" spans="1:10" s="2" customFormat="1">
       <c r="A35" s="8"/>
@@ -32671,7 +32738,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="92"/>
+      <c r="J35" s="90"/>
     </row>
     <row r="36" spans="1:10" s="2" customFormat="1">
       <c r="A36" s="6"/>
@@ -32696,55 +32763,55 @@
       <c r="A59" s="11"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="94"/>
+      <c r="A101" s="92"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="94"/>
+      <c r="A102" s="92"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="94"/>
+      <c r="A103" s="92"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="94"/>
+      <c r="A104" s="92"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="94"/>
+      <c r="A105" s="92"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="94"/>
+      <c r="A106" s="92"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="94"/>
+      <c r="A107" s="92"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="94"/>
+      <c r="A108" s="92"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="94"/>
+      <c r="A109" s="92"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="94"/>
+      <c r="A110" s="92"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="94"/>
+      <c r="A111" s="92"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="94"/>
+      <c r="A112" s="92"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="94"/>
+      <c r="A113" s="92"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="94"/>
+      <c r="A114" s="92"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="94"/>
+      <c r="A115" s="92"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="94"/>
+      <c r="A116" s="92"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="94"/>
+      <c r="A117" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -32763,213 +32830,221 @@
   <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="98" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="98" customWidth="1"/>
-    <col min="3" max="3" width="46.25" style="98" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="98" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="98"/>
+    <col min="1" max="1" width="12.625" style="96" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="96" customWidth="1"/>
+    <col min="3" max="3" width="46.25" style="96" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="96" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="96"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27">
-      <c r="A1" s="95" t="s">
-        <v>93</v>
+      <c r="A1" s="93" t="s">
+        <v>82</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="97"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95"/>
     </row>
     <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="A2" s="99"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="100" t="s">
+    </row>
+    <row r="4" spans="1:5" s="102" customFormat="1">
+      <c r="A4" s="99">
+        <v>1</v>
+      </c>
+      <c r="B4" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C4" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="100" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="104" customFormat="1">
-      <c r="A4" s="101">
-        <v>1</v>
-      </c>
-      <c r="B4" s="101" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="102" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="103">
+      <c r="D4" s="101">
         <v>42948</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="104" customFormat="1">
-      <c r="A5" s="101"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="103"/>
+    <row r="5" spans="1:5" s="102" customFormat="1">
+      <c r="A5" s="99">
+        <v>2</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="101">
+        <v>42955</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" s="104" customFormat="1">
-      <c r="A6" s="101"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
+    <row r="6" spans="1:5" s="102" customFormat="1">
+      <c r="A6" s="99"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
     </row>
-    <row r="7" spans="1:5" s="104" customFormat="1">
-      <c r="A7" s="101"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="103"/>
+    <row r="7" spans="1:5" s="102" customFormat="1">
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
     </row>
-    <row r="8" spans="1:5" s="104" customFormat="1">
-      <c r="A8" s="101"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="103"/>
+    <row r="8" spans="1:5" s="102" customFormat="1">
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="101"/>
     </row>
-    <row r="9" spans="1:5" s="104" customFormat="1">
-      <c r="A9" s="101"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="103"/>
+    <row r="9" spans="1:5" s="102" customFormat="1">
+      <c r="A9" s="99"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="101"/>
     </row>
-    <row r="10" spans="1:5" s="104" customFormat="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
+    <row r="10" spans="1:5" s="102" customFormat="1">
+      <c r="A10" s="99"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="101"/>
     </row>
-    <row r="11" spans="1:5" s="104" customFormat="1">
-      <c r="A11" s="101"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="103"/>
+    <row r="11" spans="1:5" s="102" customFormat="1">
+      <c r="A11" s="99"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="101"/>
     </row>
-    <row r="12" spans="1:5" s="104" customFormat="1">
-      <c r="A12" s="101"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="103"/>
+    <row r="12" spans="1:5" s="102" customFormat="1">
+      <c r="A12" s="99"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
     </row>
-    <row r="13" spans="1:5" s="104" customFormat="1">
-      <c r="A13" s="101"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="103"/>
+    <row r="13" spans="1:5" s="102" customFormat="1">
+      <c r="A13" s="99"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="101"/>
     </row>
-    <row r="14" spans="1:5" s="104" customFormat="1">
-      <c r="A14" s="101"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
+    <row r="14" spans="1:5" s="102" customFormat="1">
+      <c r="A14" s="99"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="101"/>
     </row>
-    <row r="15" spans="1:5" s="104" customFormat="1">
-      <c r="A15" s="101"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="103"/>
+    <row r="15" spans="1:5" s="102" customFormat="1">
+      <c r="A15" s="99"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="101"/>
     </row>
-    <row r="16" spans="1:5" s="104" customFormat="1">
-      <c r="A16" s="101"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="103"/>
+    <row r="16" spans="1:5" s="102" customFormat="1">
+      <c r="A16" s="99"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="101"/>
     </row>
-    <row r="17" spans="1:4" s="104" customFormat="1">
-      <c r="A17" s="101"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="103"/>
+    <row r="17" spans="1:4" s="102" customFormat="1">
+      <c r="A17" s="99"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="101"/>
     </row>
-    <row r="18" spans="1:4" s="104" customFormat="1">
-      <c r="A18" s="101"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="103"/>
+    <row r="18" spans="1:4" s="102" customFormat="1">
+      <c r="A18" s="99"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="101"/>
     </row>
     <row r="19" spans="1:4" ht="15.75">
-      <c r="A19" s="101"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="103"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="101"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="101"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="103"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="101"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="101"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="103"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="101"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="110"/>
+      <c r="A95" s="108"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="110"/>
+      <c r="A96" s="108"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="110"/>
+      <c r="A97" s="108"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="110"/>
+      <c r="A98" s="108"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="110"/>
+      <c r="A99" s="108"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="110"/>
+      <c r="A100" s="108"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="110"/>
+      <c r="A101" s="108"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="110"/>
+      <c r="A102" s="108"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="110"/>
+      <c r="A103" s="108"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="110"/>
+      <c r="A104" s="108"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="110"/>
+      <c r="A105" s="108"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="110"/>
+      <c r="A106" s="108"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="110"/>
+      <c r="A107" s="108"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="110"/>
+      <c r="A108" s="108"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="110"/>
+      <c r="A109" s="108"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="110"/>
+      <c r="A110" s="108"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="110"/>
+      <c r="A111" s="108"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -32983,333 +33058,333 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="139" customWidth="1"/>
-    <col min="2" max="4" width="9.625" style="139" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="139" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="139" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="139" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="139" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="139"/>
+    <col min="1" max="1" width="9.25" style="137" customWidth="1"/>
+    <col min="2" max="4" width="9.625" style="137" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="137" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="137" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="137" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="137" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="137"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="112" customFormat="1" ht="22.5">
-      <c r="A1" s="111"/>
+    <row r="1" spans="1:9" s="110" customFormat="1" ht="22.5">
+      <c r="A1" s="109"/>
     </row>
-    <row r="2" spans="1:9" s="112" customFormat="1" ht="25.5" customHeight="1">
+    <row r="2" spans="1:9" s="110" customFormat="1" ht="25.5" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="113" customFormat="1" ht="22.5">
+      <c r="A3" s="111" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="112"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+    </row>
+    <row r="4" spans="1:9" s="110" customFormat="1" ht="18.75">
+      <c r="A4" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="110" customFormat="1" ht="18.75">
+      <c r="A5" s="114"/>
+    </row>
+    <row r="6" spans="1:9" s="110" customFormat="1" ht="18.75">
+      <c r="A6" s="114"/>
+    </row>
+    <row r="7" spans="1:9" s="110" customFormat="1" ht="18.75">
+      <c r="A7" s="114"/>
+    </row>
+    <row r="8" spans="1:9" s="110" customFormat="1" ht="18.75">
+      <c r="A8" s="114"/>
+    </row>
+    <row r="9" spans="1:9" s="110" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A9" s="114"/>
+    </row>
+    <row r="10" spans="1:9" s="110" customFormat="1" ht="18.75">
+      <c r="A10" s="114"/>
+    </row>
+    <row r="11" spans="1:9" s="110" customFormat="1" ht="18.75">
+      <c r="A11" s="114"/>
+    </row>
+    <row r="12" spans="1:9" s="110" customFormat="1" ht="18.75">
+      <c r="A12" s="114"/>
+    </row>
+    <row r="13" spans="1:9" s="110" customFormat="1" ht="18.75">
+      <c r="A13" s="114"/>
+    </row>
+    <row r="14" spans="1:9" s="110" customFormat="1" ht="18.75">
+      <c r="A14" s="114"/>
+    </row>
+    <row r="15" spans="1:9" s="110" customFormat="1" ht="18.75">
+      <c r="A15" s="115"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+    </row>
+    <row r="16" spans="1:9" s="117" customFormat="1" ht="46.5">
+      <c r="A16" s="141" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="141"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+    </row>
+    <row r="17" spans="1:8" s="117" customFormat="1">
+      <c r="A17" s="118"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+    </row>
+    <row r="18" spans="1:8" s="110" customFormat="1" ht="53.25">
+      <c r="A18" s="121" t="s">
         <v>97</v>
       </c>
+      <c r="B18" s="116"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
     </row>
-    <row r="3" spans="1:9" s="115" customFormat="1" ht="22.5">
-      <c r="A3" s="113" t="s">
-        <v>98</v>
+    <row r="19" spans="1:8" s="110" customFormat="1" ht="18.75">
+      <c r="A19" s="115"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+    </row>
+    <row r="20" spans="1:8" s="110" customFormat="1" ht="45.75">
+      <c r="A20" s="122"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+    </row>
+    <row r="21" spans="1:8" s="110" customFormat="1" ht="18.75">
+      <c r="A21" s="88"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+    </row>
+    <row r="22" spans="1:8" s="110" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A22" s="123" t="s">
+        <v>88</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="124"/>
     </row>
-    <row r="4" spans="1:9" s="112" customFormat="1" ht="18.75">
-      <c r="A4" s="3" t="s">
-        <v>111</v>
+    <row r="23" spans="1:8" s="110" customFormat="1" ht="18.75">
+      <c r="A23" s="115"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+    </row>
+    <row r="24" spans="1:8" s="110" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="115"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+    </row>
+    <row r="25" spans="1:8" s="110" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="115"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+    </row>
+    <row r="26" spans="1:8" s="110" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="115"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+    </row>
+    <row r="27" spans="1:8" s="110" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="115"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+    </row>
+    <row r="28" spans="1:8" s="110" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="115"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+    </row>
+    <row r="29" spans="1:8" s="127" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A29" s="125" t="s">
+        <v>89</v>
       </c>
+      <c r="B29" s="126"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
     </row>
-    <row r="5" spans="1:9" s="112" customFormat="1" ht="18.75">
-      <c r="A5" s="116"/>
+    <row r="30" spans="1:8" s="127" customFormat="1">
+      <c r="A30" s="128"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
     </row>
-    <row r="6" spans="1:9" s="112" customFormat="1" ht="18.75">
-      <c r="A6" s="116"/>
+    <row r="31" spans="1:8" s="127" customFormat="1">
+      <c r="A31" s="128"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
     </row>
-    <row r="7" spans="1:9" s="112" customFormat="1" ht="18.75">
-      <c r="A7" s="116"/>
+    <row r="32" spans="1:8" s="127" customFormat="1">
+      <c r="A32" s="128"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="129"/>
     </row>
-    <row r="8" spans="1:9" s="112" customFormat="1" ht="18.75">
-      <c r="A8" s="116"/>
+    <row r="33" spans="1:8" s="133" customFormat="1" ht="30" customHeight="1">
+      <c r="A33" s="130" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="131"/>
+      <c r="C33" s="130" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="131"/>
+      <c r="E33" s="130" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="131"/>
+      <c r="G33" s="132" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" s="131"/>
     </row>
-    <row r="9" spans="1:9" s="112" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A9" s="116"/>
+    <row r="34" spans="1:8" s="133" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A34" s="130" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="142"/>
+      <c r="C34" s="142"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="130" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="142"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
     </row>
-    <row r="10" spans="1:9" s="112" customFormat="1" ht="18.75">
-      <c r="A10" s="116"/>
+    <row r="35" spans="1:8" s="110" customFormat="1" ht="18.75">
+      <c r="A35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
     </row>
-    <row r="11" spans="1:9" s="112" customFormat="1" ht="18.75">
-      <c r="A11" s="116"/>
+    <row r="36" spans="1:8" s="110" customFormat="1" ht="19.5">
+      <c r="A36" s="134"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
     </row>
-    <row r="12" spans="1:9" s="112" customFormat="1" ht="18.75">
-      <c r="A12" s="116"/>
+    <row r="37" spans="1:8" s="110" customFormat="1" ht="19.5">
+      <c r="A37" s="135"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
     </row>
-    <row r="13" spans="1:9" s="112" customFormat="1" ht="18.75">
-      <c r="A13" s="116"/>
-    </row>
-    <row r="14" spans="1:9" s="112" customFormat="1" ht="18.75">
-      <c r="A14" s="116"/>
-    </row>
-    <row r="15" spans="1:9" s="112" customFormat="1" ht="18.75">
-      <c r="A15" s="117"/>
-      <c r="B15" s="118"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-    </row>
-    <row r="16" spans="1:9" s="119" customFormat="1" ht="46.5">
-      <c r="A16" s="143" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="143"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-    </row>
-    <row r="17" spans="1:8" s="119" customFormat="1">
-      <c r="A17" s="120"/>
-      <c r="B17" s="121"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-    </row>
-    <row r="18" spans="1:8" s="112" customFormat="1" ht="53.25">
-      <c r="A18" s="123" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-    </row>
-    <row r="19" spans="1:8" s="112" customFormat="1" ht="18.75">
-      <c r="A19" s="117"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-    </row>
-    <row r="20" spans="1:8" s="112" customFormat="1" ht="45.75">
-      <c r="A20" s="124"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-    </row>
-    <row r="21" spans="1:8" s="112" customFormat="1" ht="18.75">
-      <c r="A21" s="90"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-    </row>
-    <row r="22" spans="1:8" s="112" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A22" s="125" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="126"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-    </row>
-    <row r="23" spans="1:8" s="112" customFormat="1" ht="18.75">
-      <c r="A23" s="117"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-    </row>
-    <row r="24" spans="1:8" s="112" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="117"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-    </row>
-    <row r="25" spans="1:8" s="112" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="117"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="118"/>
-    </row>
-    <row r="26" spans="1:8" s="112" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="117"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="118"/>
-    </row>
-    <row r="27" spans="1:8" s="112" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="117"/>
-      <c r="B27" s="118"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="118"/>
-    </row>
-    <row r="28" spans="1:8" s="112" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="117"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="118"/>
-    </row>
-    <row r="29" spans="1:8" s="129" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A29" s="127" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="128"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
-    </row>
-    <row r="30" spans="1:8" s="129" customFormat="1">
-      <c r="A30" s="130"/>
-      <c r="B30" s="131"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="131"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="131"/>
-    </row>
-    <row r="31" spans="1:8" s="129" customFormat="1">
-      <c r="A31" s="130"/>
-      <c r="B31" s="131"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-    </row>
-    <row r="32" spans="1:8" s="129" customFormat="1">
-      <c r="A32" s="130"/>
-      <c r="B32" s="131"/>
-      <c r="C32" s="131"/>
-      <c r="D32" s="131"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="131"/>
-    </row>
-    <row r="33" spans="1:8" s="135" customFormat="1" ht="30" customHeight="1">
-      <c r="A33" s="132" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="133"/>
-      <c r="C33" s="132" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33" s="133"/>
-      <c r="E33" s="132" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" s="133"/>
-      <c r="G33" s="134" t="s">
-        <v>105</v>
-      </c>
-      <c r="H33" s="133"/>
-    </row>
-    <row r="34" spans="1:8" s="135" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A34" s="132" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34" s="144"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="132" t="s">
-        <v>107</v>
-      </c>
-      <c r="F34" s="144"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="144"/>
-    </row>
-    <row r="35" spans="1:8" s="112" customFormat="1" ht="18.75">
-      <c r="A35" s="117"/>
-      <c r="B35" s="118"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="118"/>
-    </row>
-    <row r="36" spans="1:8" s="112" customFormat="1" ht="19.5">
-      <c r="A36" s="136"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="118"/>
-    </row>
-    <row r="37" spans="1:8" s="112" customFormat="1" ht="19.5">
-      <c r="A37" s="137"/>
-      <c r="B37" s="118"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="118"/>
-    </row>
-    <row r="38" spans="1:8" s="112" customFormat="1"/>
+    <row r="38" spans="1:8" s="110" customFormat="1"/>
     <row r="55" spans="1:1">
-      <c r="A55" s="138"/>
+      <c r="A55" s="136"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="140"/>
+      <c r="A56" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -33332,8 +33407,8 @@
   </sheetPr>
   <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -33346,7 +33421,7 @@
   <sheetData>
     <row r="1" spans="2:12" ht="38.25" customHeight="1">
       <c r="B1" s="59" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C1" s="60"/>
       <c r="D1" s="60"/>
@@ -33364,202 +33439,260 @@
       <c r="B3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
       <c r="E3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
+      <c r="F3" s="175" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="171"/>
       <c r="H3" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="173"/>
-      <c r="J3" s="174"/>
+      <c r="I3" s="175" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="171"/>
       <c r="K3" s="64" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
-      <c r="L3" s="65"/>
+      <c r="L3" s="176" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="66" t="s">
-        <v>40</v>
+      <c r="B4" s="65" t="s">
+        <v>37</v>
       </c>
-      <c r="C4" s="176"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="67" t="s">
-        <v>41</v>
+      <c r="C4" s="173">
+        <v>42948</v>
       </c>
-      <c r="F4" s="176"/>
-      <c r="G4" s="177"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="173">
+        <v>42957</v>
+      </c>
+      <c r="G4" s="174"/>
       <c r="H4" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
+      <c r="I4" s="172">
+        <v>0</v>
+      </c>
+      <c r="J4" s="172"/>
       <c r="K4" s="36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
-      <c r="L4" s="68"/>
+      <c r="L4" s="67">
+        <v>42955</v>
+      </c>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="69" t="s">
-        <v>39</v>
+      <c r="B5" s="68" t="s">
+        <v>36</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="73"/>
+      <c r="C5" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="184" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="184" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="71"/>
     </row>
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="150"/>
-      <c r="D6" s="74" t="s">
+      <c r="C6" s="148"/>
+      <c r="D6" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="F6" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="74" t="s">
+      <c r="G6" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="150" t="s">
+      <c r="J6" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="150"/>
-      <c r="L6" s="157"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="155"/>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="155" t="s">
-        <v>75</v>
+      <c r="B7" s="153" t="s">
+        <v>72</v>
       </c>
-      <c r="C7" s="156"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="160"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="74">
+        <v>42958</v>
+      </c>
+      <c r="F7" s="74">
+        <v>42955</v>
+      </c>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74">
+        <v>42955</v>
+      </c>
+      <c r="J7" s="177" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="154"/>
+      <c r="L7" s="158"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="155"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="160"/>
+      <c r="B8" s="178" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="154"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="74">
+        <v>42958</v>
+      </c>
+      <c r="F8" s="74">
+        <v>42955</v>
+      </c>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74">
+        <v>42955</v>
+      </c>
+      <c r="J8" s="177" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="154"/>
+      <c r="L8" s="158"/>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="155"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="160"/>
+      <c r="B9" s="178" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="154"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74">
+        <v>42958</v>
+      </c>
+      <c r="F9" s="74">
+        <v>42955</v>
+      </c>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74">
+        <v>42955</v>
+      </c>
+      <c r="J9" s="177" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="154"/>
+      <c r="L9" s="158"/>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="155"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="160"/>
+      <c r="B10" s="178" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="154"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="74">
+        <v>42958</v>
+      </c>
+      <c r="F10" s="74">
+        <v>42955</v>
+      </c>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74">
+        <v>42955</v>
+      </c>
+      <c r="J10" s="177" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="154"/>
+      <c r="L10" s="158"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="155"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="160"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="158"/>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="155"/>
-      <c r="C12" s="156"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="160"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="158"/>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="79"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="77"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="163"/>
-      <c r="C14" s="164"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="164"/>
-      <c r="L14" s="165"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="162"/>
+      <c r="K14" s="162"/>
+      <c r="L14" s="163"/>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="172" t="s">
+      <c r="B15" s="170" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" s="36" t="s">
         <v>11</v>
@@ -33576,213 +33709,215 @@
       <c r="H15" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="168" t="s">
+      <c r="I15" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="169"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="170"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="167"/>
+      <c r="L15" s="168"/>
     </row>
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="172"/>
+      <c r="B16" s="170"/>
       <c r="C16" s="57"/>
       <c r="D16" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="162"/>
+      <c r="K16" s="162"/>
+      <c r="L16" s="163"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="170"/>
+      <c r="C17" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="162"/>
+      <c r="K17" s="162"/>
+      <c r="L17" s="163"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="170"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="79"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="170"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="79"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="170"/>
+      <c r="C20" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
-      <c r="L16" s="165"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="79"/>
     </row>
-    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="172"/>
-      <c r="C17" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="164"/>
-      <c r="L17" s="165"/>
-    </row>
-    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="172"/>
-      <c r="C18" s="158"/>
-      <c r="D18" s="84" t="s">
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="170"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="81"/>
-    </row>
-    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="172"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="81"/>
-    </row>
-    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="172"/>
-      <c r="C20" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="81"/>
-    </row>
-    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="172"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="84" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="164"/>
-      <c r="K21" s="164"/>
-      <c r="L21" s="165"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="162"/>
+      <c r="K21" s="162"/>
+      <c r="L21" s="163"/>
     </row>
     <row r="22" spans="2:12" ht="39.950000000000003" customHeight="1">
       <c r="B22" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="166"/>
-      <c r="D22" s="166"/>
-      <c r="E22" s="166"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="166"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="166"/>
-      <c r="J22" s="166"/>
-      <c r="K22" s="166"/>
-      <c r="L22" s="167"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="164"/>
+      <c r="L22" s="165"/>
     </row>
     <row r="23" spans="2:12" ht="39.950000000000003" customHeight="1">
       <c r="B23" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="151"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="152"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="149"/>
+      <c r="K23" s="149"/>
+      <c r="L23" s="150"/>
     </row>
     <row r="24" spans="2:12" ht="39.950000000000003" customHeight="1">
       <c r="B24" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="151"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="151"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="152"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+      <c r="J24" s="149"/>
+      <c r="K24" s="149"/>
+      <c r="L24" s="150"/>
     </row>
     <row r="25" spans="2:12" ht="39.950000000000003" customHeight="1">
       <c r="B25" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="151"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="151"/>
-      <c r="G25" s="151"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="151"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="152"/>
+      <c r="C25" s="182" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="150"/>
     </row>
     <row r="26" spans="2:12" ht="39.950000000000003" customHeight="1" thickBot="1">
       <c r="B26" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="153"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="153"/>
-      <c r="K26" s="153"/>
-      <c r="L26" s="154"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="151"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="152"/>
     </row>
     <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" thickTop="1">
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="79"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="77"/>
     </row>
     <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="161" t="s">
+      <c r="B28" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="162"/>
+      <c r="C28" s="160"/>
       <c r="D28" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="39" t="s">
-        <v>36</v>
+      <c r="E28" s="181" t="s">
+        <v>102</v>
       </c>
-      <c r="F28" s="39" t="s">
-        <v>37</v>
+      <c r="F28" s="181" t="s">
+        <v>103</v>
       </c>
-      <c r="G28" s="39" t="s">
-        <v>38</v>
+      <c r="G28" s="181" t="s">
+        <v>111</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
@@ -33791,9 +33926,13 @@
       <c r="L28" s="40"/>
     </row>
     <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="145"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="37"/>
+      <c r="B29" s="179" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="144"/>
+      <c r="D29" s="180" t="s">
+        <v>110</v>
+      </c>
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
@@ -33804,8 +33943,8 @@
       <c r="L29" s="41"/>
     </row>
     <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B30" s="145"/>
-      <c r="C30" s="146"/>
+      <c r="B30" s="143"/>
+      <c r="C30" s="144"/>
       <c r="D30" s="37"/>
       <c r="E30" s="38"/>
       <c r="F30" s="38"/>
@@ -33817,8 +33956,8 @@
       <c r="L30" s="41"/>
     </row>
     <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="145"/>
-      <c r="C31" s="146"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="144"/>
       <c r="D31" s="37"/>
       <c r="E31" s="38"/>
       <c r="F31" s="38"/>
@@ -33830,8 +33969,8 @@
       <c r="L31" s="41"/>
     </row>
     <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="145"/>
-      <c r="C32" s="146"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="144"/>
       <c r="D32" s="37"/>
       <c r="E32" s="38"/>
       <c r="F32" s="38"/>
@@ -33843,8 +33982,8 @@
       <c r="L32" s="41"/>
     </row>
     <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="86"/>
-      <c r="C33" s="87"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="85"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
       <c r="F33" s="38"/>
@@ -33856,8 +33995,8 @@
       <c r="L33" s="41"/>
     </row>
     <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="86"/>
-      <c r="C34" s="87"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="85"/>
       <c r="D34" s="37"/>
       <c r="E34" s="38"/>
       <c r="F34" s="38"/>
@@ -33869,8 +34008,8 @@
       <c r="L34" s="41"/>
     </row>
     <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="86"/>
-      <c r="C35" s="87"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="85"/>
       <c r="D35" s="37"/>
       <c r="E35" s="38"/>
       <c r="F35" s="38"/>
@@ -33882,8 +34021,8 @@
       <c r="L35" s="41"/>
     </row>
     <row r="36" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="86"/>
-      <c r="C36" s="87"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="85"/>
       <c r="D36" s="37"/>
       <c r="E36" s="38"/>
       <c r="F36" s="38"/>
@@ -33895,8 +34034,8 @@
       <c r="L36" s="41"/>
     </row>
     <row r="37" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B37" s="86"/>
-      <c r="C37" s="87"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="85"/>
       <c r="D37" s="37"/>
       <c r="E37" s="38"/>
       <c r="F37" s="38"/>
@@ -33908,8 +34047,8 @@
       <c r="L37" s="41"/>
     </row>
     <row r="38" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B38" s="86"/>
-      <c r="C38" s="87"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="85"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
       <c r="F38" s="38"/>
@@ -33921,8 +34060,8 @@
       <c r="L38" s="41"/>
     </row>
     <row r="39" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B39" s="145"/>
-      <c r="C39" s="146"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="144"/>
       <c r="D39" s="37"/>
       <c r="E39" s="38"/>
       <c r="F39" s="38"/>
@@ -33934,8 +34073,8 @@
       <c r="L39" s="41"/>
     </row>
     <row r="40" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B40" s="145"/>
-      <c r="C40" s="146"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="144"/>
       <c r="D40" s="37"/>
       <c r="E40" s="38"/>
       <c r="F40" s="38"/>
@@ -33947,8 +34086,8 @@
       <c r="L40" s="41"/>
     </row>
     <row r="41" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B41" s="145"/>
-      <c r="C41" s="146"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="144"/>
       <c r="D41" s="37"/>
       <c r="E41" s="38"/>
       <c r="F41" s="38"/>
@@ -33960,8 +34099,8 @@
       <c r="L41" s="41"/>
     </row>
     <row r="42" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B42" s="145"/>
-      <c r="C42" s="146"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="144"/>
       <c r="D42" s="37"/>
       <c r="E42" s="38"/>
       <c r="F42" s="38"/>
@@ -33973,8 +34112,8 @@
       <c r="L42" s="41"/>
     </row>
     <row r="43" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B43" s="145"/>
-      <c r="C43" s="146"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="144"/>
       <c r="D43" s="37"/>
       <c r="E43" s="38"/>
       <c r="F43" s="38"/>
@@ -33986,8 +34125,8 @@
       <c r="L43" s="41"/>
     </row>
     <row r="44" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B44" s="147"/>
-      <c r="C44" s="148"/>
+      <c r="B44" s="145"/>
+      <c r="C44" s="146"/>
       <c r="D44" s="42"/>
       <c r="E44" s="43"/>
       <c r="F44" s="43"/>
@@ -34075,10 +34214,10 @@
   </sheetPr>
   <dimension ref="A1:IV28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="14.25"/>
@@ -34101,7 +34240,7 @@
   <sheetData>
     <row r="1" spans="1:256" ht="51" customHeight="1">
       <c r="B1" s="53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="34"/>
@@ -34121,7 +34260,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>33</v>
@@ -34139,19 +34278,19 @@
         <v>7</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K2" s="21" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:256" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -34159,32 +34298,15 @@
       <c r="B3" s="22">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="25">
-        <v>39379</v>
-      </c>
-      <c r="F3" s="29" t="str">
-        <f>IF($D3="","",IF($D3="A","每天",IF($D3="B","每周",IF($D3="C","每两周","每月"))))</f>
-        <v>每天</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="25">
-        <v>42979</v>
-      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="26"/>
-      <c r="K3" s="27" t="s">
-        <v>79</v>
-      </c>
+      <c r="K3" s="27"/>
       <c r="L3" s="25"/>
       <c r="M3" s="28"/>
     </row>
@@ -34194,14 +34316,9 @@
         <v>2</v>
       </c>
       <c r="C4" s="23"/>
-      <c r="D4" s="24" t="s">
-        <v>86</v>
-      </c>
+      <c r="D4" s="24"/>
       <c r="E4" s="25"/>
-      <c r="F4" s="29" t="str">
-        <f t="shared" ref="F4:F22" si="0">IF($D4="","",IF($D4="A","每天",IF($D4="B","每周",IF($D4="C","每两周","每月"))))</f>
-        <v>每周</v>
-      </c>
+      <c r="F4" s="29"/>
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
       <c r="I4" s="25"/>
@@ -34216,14 +34333,9 @@
         <v>3</v>
       </c>
       <c r="C5" s="23"/>
-      <c r="D5" s="24" t="s">
-        <v>87</v>
-      </c>
+      <c r="D5" s="24"/>
       <c r="E5" s="25"/>
-      <c r="F5" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>每两周</v>
-      </c>
+      <c r="F5" s="29"/>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
       <c r="I5" s="25"/>
@@ -34238,14 +34350,9 @@
         <v>4</v>
       </c>
       <c r="C6" s="23"/>
-      <c r="D6" s="24" t="s">
-        <v>88</v>
-      </c>
+      <c r="D6" s="24"/>
       <c r="E6" s="25"/>
-      <c r="F6" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>每月</v>
-      </c>
+      <c r="F6" s="29"/>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="25"/>
@@ -34263,7 +34370,7 @@
       <c r="D7" s="24"/>
       <c r="E7" s="25"/>
       <c r="F7" s="29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F7:F22" si="0">IF($D7="","",IF($D7="A","每天",IF($D7="B","每周",IF($D7="C","每两周","每月"))))</f>
         <v/>
       </c>
       <c r="G7" s="23"/>
@@ -37008,22 +37115,22 @@
     </row>
     <row r="25" spans="1:256">
       <c r="B25" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:256">
       <c r="B26" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:256">
       <c r="B27" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:256">
       <c r="B28" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -37088,7 +37195,7 @@
   <sheetData>
     <row r="1" spans="2:13" ht="51" customHeight="1">
       <c r="B1" s="54" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="46"/>
@@ -37104,40 +37211,40 @@
     </row>
     <row r="2" spans="2:13" ht="36.75" customHeight="1">
       <c r="B2" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="I2" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="48" t="s">
-        <v>71</v>
+      <c r="K2" s="48" t="s">
+        <v>58</v>
       </c>
-      <c r="E2" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="48" t="s">
+      <c r="L2" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="48" t="s">
+      <c r="M2" s="48" t="s">
         <v>59</v>
-      </c>
-      <c r="I2" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" s="48" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1">
@@ -37478,7 +37585,7 @@
     </row>
     <row r="25" spans="2:13" s="13" customFormat="1">
       <c r="B25" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
